--- a/storage/BLSDATABASE_2024.xlsx
+++ b/storage/BLSDATABASE_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cesu\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2429346-E241-46C2-9A38-E6D6162B901E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B418A7F-0AD6-458E-BDBB-F913438C9342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SFA" sheetId="1" r:id="rId1"/>
@@ -1194,12 +1194,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1207,27 +1228,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1253,14 +1253,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i/>
         <color rgb="FFFC3F04"/>
@@ -1270,6 +1262,74 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1327,9 +1387,27 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1361,14 +1439,14 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1387,11 +1465,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -1400,79 +1473,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -6077,13 +6077,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="cellIs" dxfId="35" priority="144" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="145" operator="between">
+      <formula>18</formula>
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="144" operator="between">
       <formula>0</formula>
       <formula>17</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="145" operator="between">
-      <formula>18</formula>
-      <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
@@ -6097,13 +6097,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="31" priority="300" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="301" operator="between">
+      <formula>18</formula>
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="300" operator="between">
       <formula>0</formula>
       <formula>17</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="301" operator="between">
-      <formula>18</formula>
-      <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:K23">
@@ -6127,13 +6127,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:K30">
-    <cfRule type="cellIs" dxfId="25" priority="205" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="206" operator="between">
+      <formula>18</formula>
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="205" operator="between">
       <formula>0</formula>
       <formula>17</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="206" operator="between">
-      <formula>18</formula>
-      <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:K33">
@@ -6147,43 +6147,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:K38">
-    <cfRule type="cellIs" dxfId="21" priority="151" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="152" operator="between">
+      <formula>18</formula>
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="151" operator="between">
       <formula>0</formula>
       <formula>17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="152" operator="between">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="between">
       <formula>18</formula>
       <formula>25</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="between">
       <formula>0</formula>
       <formula>17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:K22">
+    <cfRule type="cellIs" dxfId="17" priority="71" operator="between">
       <formula>18</formula>
       <formula>25</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:K22">
-    <cfRule type="cellIs" dxfId="17" priority="70" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="70" operator="between">
       <formula>0</formula>
       <formula>17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="71" operator="between">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:K25">
+    <cfRule type="cellIs" dxfId="15" priority="74" operator="between">
       <formula>18</formula>
       <formula>25</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:K25">
-    <cfRule type="cellIs" dxfId="15" priority="73" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="73" operator="between">
       <formula>0</formula>
       <formula>17</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="74" operator="between">
-      <formula>18</formula>
-      <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
@@ -6207,13 +6207,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="cellIs" dxfId="9" priority="107" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="108" operator="between">
+      <formula>18</formula>
+      <formula>25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="107" operator="between">
       <formula>0</formula>
       <formula>17</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="108" operator="between">
-      <formula>18</formula>
-      <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
@@ -6237,11 +6237,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"HOCPR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36">
@@ -6267,8 +6267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T19" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6770,65 +6770,65 @@
       <c r="AC14" s="3"/>
     </row>
     <row r="15" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="119" t="s">
+      <c r="E15" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="119" t="s">
+      <c r="F15" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="109" t="s">
+      <c r="H15" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="109" t="s">
+      <c r="I15" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="109" t="s">
+      <c r="J15" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="119" t="s">
+      <c r="K15" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="121" t="s">
+      <c r="L15" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="112"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="121" t="s">
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="112"/>
-      <c r="S15" s="112"/>
-      <c r="T15" s="112"/>
-      <c r="U15" s="112"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="119" t="s">
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="X15" s="119" t="s">
+      <c r="X15" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="Y15" s="122" t="s">
+      <c r="Y15" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="Z15" s="123"/>
-      <c r="AA15" s="109" t="s">
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="116" t="s">
         <v>30</v>
       </c>
       <c r="AB15" s="60"/>
@@ -6846,35 +6846,35 @@
       <c r="I16" s="110"/>
       <c r="J16" s="110"/>
       <c r="K16" s="110"/>
-      <c r="L16" s="109" t="s">
+      <c r="L16" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="M16" s="109" t="s">
+      <c r="M16" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="119" t="s">
+      <c r="N16" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="O16" s="119" t="s">
+      <c r="O16" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="120" t="s">
+      <c r="P16" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="121" t="s">
+      <c r="Q16" s="118"/>
+      <c r="R16" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="S16" s="113"/>
-      <c r="T16" s="121" t="s">
+      <c r="S16" s="118"/>
+      <c r="T16" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="U16" s="113"/>
+      <c r="U16" s="118"/>
       <c r="V16" s="61"/>
       <c r="W16" s="110"/>
       <c r="X16" s="110"/>
-      <c r="Y16" s="124"/>
-      <c r="Z16" s="125"/>
+      <c r="Y16" s="114"/>
+      <c r="Z16" s="115"/>
       <c r="AA16" s="110"/>
       <c r="AB16" s="60"/>
       <c r="AC16" s="60"/>
@@ -8445,11 +8445,11 @@
       <c r="AA41" s="57"/>
     </row>
     <row r="42" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="115" t="s">
+      <c r="B42" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="112"/>
-      <c r="D42" s="113"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="118"/>
       <c r="AA42" s="57"/>
     </row>
     <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8493,25 +8493,25 @@
       <c r="B49" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="116"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
       <c r="F49" s="57"/>
       <c r="G49" s="57"/>
       <c r="H49" s="57"/>
       <c r="I49" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="J49" s="118"/>
-      <c r="K49" s="114"/>
-      <c r="L49" s="114"/>
+      <c r="J49" s="122"/>
+      <c r="K49" s="123"/>
+      <c r="L49" s="123"/>
       <c r="AA49" s="57"/>
     </row>
     <row r="50" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="117"/>
+      <c r="C50" s="120"/>
       <c r="D50" s="108"/>
       <c r="E50" s="108"/>
-      <c r="J50" s="117"/>
+      <c r="J50" s="120"/>
       <c r="K50" s="108"/>
       <c r="L50" s="108"/>
       <c r="AA50" s="57"/>
@@ -11368,18 +11368,9 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="X15:X17"/>
-    <mergeCell ref="Y15:Z16"/>
-    <mergeCell ref="AA15:AA17"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:V15"/>
-    <mergeCell ref="W15:W17"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B15:B17"/>
@@ -11392,12 +11383,21 @@
     <mergeCell ref="J15:J17"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="M16:M17"/>
-    <mergeCell ref="J49:L49"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:H17"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:V15"/>
+    <mergeCell ref="W15:W17"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="X15:X17"/>
+    <mergeCell ref="Y15:Z16"/>
+    <mergeCell ref="AA15:AA17"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="R16:S16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="mailto:laarnietemporaza@gmail.com" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
